--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_209.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_209.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Westwood Inn</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Luling</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>25910</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70070</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70070</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_209.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_209.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,303 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r427110154-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40290</t>
+  </si>
+  <si>
+    <t>89019</t>
+  </si>
+  <si>
+    <t>427110154</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>New Name (Westwood Inn) - Needs More Improvement</t>
+  </si>
+  <si>
+    <t>This motel is no longer part of the Comfort Inn franchise. The name is now the Westwood Inn. The rooms seemed to have been remodeled some but they need to complete the work. I saw new furniture like beds, etc in my room but the walls were not repainted. This ruined the feeling of the room. There was a flat-screen tv and good wifi signal. Plan to go real early to get breakfast or you might be out of luck and have to go to the nearby Dot's Restaurant. During the time I was there as a guest, the rate was really high. My assumption is that the price was jacked up because the contractors who have come into the area to help out with the rebuilding after the August Floods all have business accounts that could afford the higher rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This motel is no longer part of the Comfort Inn franchise. The name is now the Westwood Inn. The rooms seemed to have been remodeled some but they need to complete the work. I saw new furniture like beds, etc in my room but the walls were not repainted. This ruined the feeling of the room. There was a flat-screen tv and good wifi signal. Plan to go real early to get breakfast or you might be out of luck and have to go to the nearby Dot's Restaurant. During the time I was there as a guest, the rate was really high. My assumption is that the price was jacked up because the contractors who have come into the area to help out with the rebuilding after the August Floods all have business accounts that could afford the higher rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r386768794-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>386768794</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Country feel</t>
+  </si>
+  <si>
+    <t>Clean rooms. We were on the 2nd floor and had two good nights.  Pool was in the back.  Breeze was nice.  Dot's Dinner next door had good food and large portions.  About 25 minutes to Plantations or New Orleans downtown. I would stay here again if passing through.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r325333297-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>325333297</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>You'd Better Like Trains</t>
+  </si>
+  <si>
+    <t>One of these things is not like the others.  Night 6, another Comfort Inn.  I really don't know how they managed to get the banner.  Outdoor corridors, no elevators, just across the busy highway is a railroad track.  Abandoned vehicle in the parking lot.  At the end of the day, though, the bed was comfortable, and the sheets clean.  Wouldn't race back, but it did the trick at the time.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r309087758-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>309087758</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t>Check in was good and prompt. Bed was comfortable and had clean sheets. Shower was hot and had lots of pressure. Coffee pot in room. Complimentary breakfast was not a huge spread but satisfying..not a huge hotel...didn't get to try out the pool or anything else on the premises...only in town for one night. Several restaurants in driving distance from the hotel also.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r296793873-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296793873</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t>I went to get a room and The lobby was empty, so i waited for a couple of minutes just in case they were in the bathroom or something. Still no one showed up, so i went to wal mart down the road for up to 30 minutes to an hour and came back but still no body was there. There is a train track right across the street and the train was constantly blowing the horn, they also had sketchy looking people outside that looked like they were up to no good and they had drunk people walking around screaming, by then i defiantly changed my mind about this hotel. I DO NOT recommend this hotel to anyone and I didn't even get to get a room. I could only imagine that i would be kept up all night with the noise and the paranoia. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I went to get a room and The lobby was empty, so i waited for a couple of minutes just in case they were in the bathroom or something. Still no one showed up, so i went to wal mart down the road for up to 30 minutes to an hour and came back but still no body was there. There is a train track right across the street and the train was constantly blowing the horn, they also had sketchy looking people outside that looked like they were up to no good and they had drunk people walking around screaming, by then i defiantly changed my mind about this hotel. I DO NOT recommend this hotel to anyone and I didn't even get to get a room. I could only imagine that i would be kept up all night with the noise and the paranoia. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r242602448-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>242602448</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>A Good Night's Sleep</t>
+  </si>
+  <si>
+    <t>We were placed in a room in the rear and had a compressor for the pool close by. Not good.The low-flush toilet was interesting. You had to bend over and push a button on the side...you actually had to hold it in during the whole flush.  You can imagine what you view could be at that time!The room was clean and the bedding was very nice. The mattress was A+! We enjoyed having a table and two chairs where we could set up our computers.We were up and dressed and ready for breakfast at 8:30 and discovered that breakfast is served from 5-8AM. Geesh! The desk clerk kindly offered to get something back out for us but we declined. McDonald's bacon, egg, and cheese biscuits were calling our names.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We were placed in a room in the rear and had a compressor for the pool close by. Not good.The low-flush toilet was interesting. You had to bend over and push a button on the side...you actually had to hold it in during the whole flush.  You can imagine what you view could be at that time!The room was clean and the bedding was very nice. The mattress was A+! We enjoyed having a table and two chairs where we could set up our computers.We were up and dressed and ready for breakfast at 8:30 and discovered that breakfast is served from 5-8AM. Geesh! The desk clerk kindly offered to get something back out for us but we declined. McDonald's bacon, egg, and cheese biscuits were calling our names.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r206263482-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206263482</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great price, good room</t>
+  </si>
+  <si>
+    <t>We drove from Pennsylvania to visit a good friend who is in Ochsner Hospital in New Orleans. The hotel connected to the hospital is terribly high priced, just what a patient's family member needs. We 'shopped' around a bit in the Meterie/New Orleans area and we found only high prices, shabby rooms and questionable neighborhoods. Hubby decided to go a little way out to Boutte. The fairly new Quality Inn had a much better price but the lobby (very pretty) was so heavily fragranced I was afraid we would both have major allergy attacks. They need to re-think their cleaning plan.Checking tripadvisor one more time produced the Comfort Inn. Insert celestial music here. One third the cost of even the lowest priced room near the hospital. It was a large, clean room and the afore mentioned trains &amp; tractor trailer were apparently on good behavior the two night we were there. We would definitely stay here again if there is a need.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We drove from Pennsylvania to visit a good friend who is in Ochsner Hospital in New Orleans. The hotel connected to the hospital is terribly high priced, just what a patient's family member needs. We 'shopped' around a bit in the Meterie/New Orleans area and we found only high prices, shabby rooms and questionable neighborhoods. Hubby decided to go a little way out to Boutte. The fairly new Quality Inn had a much better price but the lobby (very pretty) was so heavily fragranced I was afraid we would both have major allergy attacks. They need to re-think their cleaning plan.Checking tripadvisor one more time produced the Comfort Inn. Insert celestial music here. One third the cost of even the lowest priced room near the hospital. It was a large, clean room and the afore mentioned trains &amp; tractor trailer were apparently on good behavior the two night we were there. We would definitely stay here again if there is a need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r183845233-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>183845233</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Bad location</t>
+  </si>
+  <si>
+    <t>I just came back from my trip to New Orleans and we stayed at this hotel for 2 nights. The hotel is located on a highway and there is a railroad that runs close to the hotel as well. Both nights we had trouble sleeping due to tremendous amount of noise of either trucks or trains honking as they were passed by. Closing windows didn't make any difference, the noise was just as bad. Customer service was okay too, when we asked the receptionist about certain attractions, she didnt seem to know much about them and wasn't very helpful. Breakfast was good, although it closes early in the morning (only goes until 8am during weekdays). Room size was good, however, our sink was continuously leaking water on the carpet. Overall, I wouldn't recommend this hotel to others. I'm surprised at the ratings it has received so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Dipak P, Manager at WestWood Inn, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>I just came back from my trip to New Orleans and we stayed at this hotel for 2 nights. The hotel is located on a highway and there is a railroad that runs close to the hotel as well. Both nights we had trouble sleeping due to tremendous amount of noise of either trucks or trains honking as they were passed by. Closing windows didn't make any difference, the noise was just as bad. Customer service was okay too, when we asked the receptionist about certain attractions, she didnt seem to know much about them and wasn't very helpful. Breakfast was good, although it closes early in the morning (only goes until 8am during weekdays). Room size was good, however, our sink was continuously leaking water on the carpet. Overall, I wouldn't recommend this hotel to others. I'm surprised at the ratings it has received so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r177301493-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>177301493</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>A decent budget hotel</t>
+  </si>
+  <si>
+    <t>Our recent stay was for 3 nights. Yes, it is an older property, but is does appear to have had some recent renovations and we found the staff to be friendly and helpful.Our king bed room was fair sized. It appeared to have been recently painted. The carpet was clean and the pile not worn. Bedding clean and quite comfortable. Our room also included a fridge (ice cold!), a microwave oven, and a table for 2. The LG flat screen TV was fairy new with a good selection of cable channels. The dressing area counter top and tub/shower walls were a modern solid surface material that looks like granite.The train track mentioned in another post was not an issue.Also included is complementry hot and continental breakfast items, average.We had trouble the first night with the electronic lock on our room door. We were offered another room, but as it was late and we had already unpacked, we declined. The lock was promptly replaced the next morning, problem solved. Thanks Raven!!Overall, we feel this hotel offered a good value for the rate paid and we would stay with them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Our recent stay was for 3 nights. Yes, it is an older property, but is does appear to have had some recent renovations and we found the staff to be friendly and helpful.Our king bed room was fair sized. It appeared to have been recently painted. The carpet was clean and the pile not worn. Bedding clean and quite comfortable. Our room also included a fridge (ice cold!), a microwave oven, and a table for 2. The LG flat screen TV was fairy new with a good selection of cable channels. The dressing area counter top and tub/shower walls were a modern solid surface material that looks like granite.The train track mentioned in another post was not an issue.Also included is complementry hot and continental breakfast items, average.We had trouble the first night with the electronic lock on our room door. We were offered another room, but as it was late and we had already unpacked, we declined. The lock was promptly replaced the next morning, problem solved. Thanks Raven!!Overall, we feel this hotel offered a good value for the rate paid and we would stay with them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r164275196-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>164275196</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Affordable</t>
+  </si>
+  <si>
+    <t>I stayed one night.  The staff was very friendly.  The room was clean and nice.  Only problem was the TV stations were fuzzy.  Other guests could be heard talking outside and the train would blare it's horn.  The breakfast was really good.  I was pleasantly surprised by all the options.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r142868177-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142868177</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Not too shabby</t>
+  </si>
+  <si>
+    <t>I stay here whenever I work out of the NOLA branch.  The rooms are getting outdated. Parking is a little bit of a hassle if you get a room in the back so make sure you ask for a room out front.  The staff are and have always been very friendly and seem eager to help. The breakfast is average. Room are clean but the furniture and bathrooms are showing signs of wear.  There is a great place to eat (Dots) located right in the parking lot.  The hotel is just minutes from Walmart and other places to eat.   If you are a day sleeper do not sleep in the back as there is a day care and the screaming kids will wake you at recess.   MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here whenever I work out of the NOLA branch.  The rooms are getting outdated. Parking is a little bit of a hassle if you get a room in the back so make sure you ask for a room out front.  The staff are and have always been very friendly and seem eager to help. The breakfast is average. Room are clean but the furniture and bathrooms are showing signs of wear.  There is a great place to eat (Dots) located right in the parking lot.  The hotel is just minutes from Walmart and other places to eat.   If you are a day sleeper do not sleep in the back as there is a day care and the screaming kids will wake you at recess.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r131362081-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>131362081</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>Airport overnight stop</t>
+  </si>
+  <si>
+    <t>I didn't see all this evidence of an old tired building the other 2 reviews mentioned.  Walls a little thin and you do get early risers catching early flights.  Airport shuttle laid on but you would be best driving around a bit for a reasonable choice of evening meal rather than rely on walking somewhere.  I liked that you could actually open a window to get real fresh air.  The business centre also meant I could print off my boarding cards with no charge and the free wifi was also useful.  Breakfast was a bit "plastic" but there was plenty of juice and coffee and a make it yourself waffle machine too.  All in all reasonable value for the price and friendly staff.  No complaintsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I didn't see all this evidence of an old tired building the other 2 reviews mentioned.  Walls a little thin and you do get early risers catching early flights.  Airport shuttle laid on but you would be best driving around a bit for a reasonable choice of evening meal rather than rely on walking somewhere.  I liked that you could actually open a window to get real fresh air.  The business centre also meant I could print off my boarding cards with no charge and the free wifi was also useful.  Breakfast was a bit "plastic" but there was plenty of juice and coffee and a make it yourself waffle machine too.  All in all reasonable value for the price and friendly staff.  No complaintsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r127204030-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127204030</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>a pleasant surprise</t>
+  </si>
+  <si>
+    <t>It is an older building and is pretty rundown.  Our room was clean.  There are train tracks across the street and I was afraid it would be loud but we weren't disturbed at all by a train.  Breakfast is served 5am-8am-- we didn't make it down in time so I don't know about the options available.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d89019-r6781558-WestWood_Inn-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>6781558</t>
+  </si>
+  <si>
+    <t>02/11/2007</t>
+  </si>
+  <si>
+    <t>Rundown</t>
+  </si>
+  <si>
+    <t>This is an older hotel which has become pretty rundown.  The rooms are fairly clean for how rundown the property is.  It is located in an industrial area about 15 miles west of New Orleans.  The breakfast is pretty minimal.</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +855,878 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25910</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +1749,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +1781,31 @@
         <v>25910</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E2" t="n">
         <v>70070</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
